--- a/Team-Data/2014-15/1-24-2014-15.xlsx
+++ b/Team-Data/2014-15/1-24-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>7.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -783,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -792,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -929,10 +996,10 @@
         <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG3" t="n">
         <v>23</v>
@@ -965,34 +1032,34 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS3" t="n">
         <v>13</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -1030,97 +1097,97 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.409</v>
+        <v>0.419</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J4" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L4" t="n">
         <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="N4" t="n">
         <v>0.317</v>
       </c>
       <c r="O4" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="R4" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T4" t="n">
-        <v>41.8</v>
+        <v>42.1</v>
       </c>
       <c r="U4" t="n">
         <v>20.5</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Y4" t="n">
         <v>4.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.7</v>
+        <v>-3</v>
       </c>
       <c r="AD4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH4" t="n">
         <v>8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>24</v>
@@ -1135,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN4" t="n">
         <v>28</v>
@@ -1153,22 +1220,22 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY4" t="n">
         <v>11</v>
@@ -1183,7 +1250,7 @@
         <v>25</v>
       </c>
       <c r="BC4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -1212,67 +1279,67 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.422</v>
+        <v>0.409</v>
       </c>
       <c r="H5" t="n">
         <v>48.8</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="N5" t="n">
         <v>0.309</v>
       </c>
       <c r="O5" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="R5" t="n">
         <v>10.5</v>
       </c>
       <c r="S5" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T5" t="n">
         <v>43.9</v>
       </c>
       <c r="U5" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="V5" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="W5" t="n">
         <v>5.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.5</v>
@@ -1281,34 +1348,34 @@
         <v>18.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.8</v>
+        <v>95.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1323,25 +1390,25 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP5" t="n">
         <v>14</v>
       </c>
-      <c r="AP5" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU5" t="n">
         <v>27</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>28</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1350,22 +1417,22 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB5" t="n">
         <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1487,7 +1554,7 @@
         <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
         <v>19</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1669,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
@@ -1690,10 +1757,10 @@
         <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="n">
         <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.698</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
@@ -1776,7 +1843,7 @@
         <v>40.6</v>
       </c>
       <c r="J8" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
@@ -1785,34 +1852,34 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O8" t="n">
         <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R8" t="n">
         <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
@@ -1830,31 +1897,31 @@
         <v>22.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.1</v>
+        <v>107.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF8" t="n">
         <v>5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>4</v>
       </c>
       <c r="AG8" t="n">
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1863,28 +1930,28 @@
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN8" t="n">
         <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>17</v>
       </c>
       <c r="AS8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT8" t="n">
         <v>20</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1896,10 +1963,10 @@
         <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-2.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
         <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
@@ -2036,10 +2103,10 @@
         <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>14</v>
@@ -2069,10 +2136,10 @@
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2081,7 +2148,7 @@
         <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2093,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="BC9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>0.386</v>
+        <v>0.395</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J10" t="n">
         <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
       <c r="L10" t="n">
         <v>8.800000000000001</v>
@@ -2152,70 +2219,70 @@
         <v>25.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O10" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P10" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q10" t="n">
         <v>0.699</v>
       </c>
       <c r="R10" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S10" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T10" t="n">
         <v>45.8</v>
       </c>
       <c r="U10" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V10" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W10" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA10" t="n">
         <v>19.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ10" t="n">
         <v>6</v>
@@ -2224,13 +2291,13 @@
         <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM10" t="n">
         <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="n">
         <v>25</v>
@@ -2251,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="AU10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2260,7 +2327,7 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -2409,13 +2476,13 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>22</v>
@@ -2439,7 +2506,7 @@
         <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -2486,61 +2553,61 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.674</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
         <v>31.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>21.2</v>
       </c>
       <c r="V12" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="W12" t="n">
         <v>9.800000000000001</v>
@@ -2552,37 +2619,37 @@
         <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>16</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2612,10 +2679,10 @@
         <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,19 +2691,19 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>-2.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>25</v>
@@ -2764,7 +2831,7 @@
         <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2785,7 +2852,7 @@
         <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
         <v>14</v>
@@ -2797,16 +2864,16 @@
         <v>6</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY13" t="n">
         <v>18</v>
@@ -2815,7 +2882,7 @@
         <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2952,10 +3019,10 @@
         <v>2</v>
       </c>
       <c r="AL14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM14" t="n">
         <v>4</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>5</v>
       </c>
       <c r="AN14" t="n">
         <v>3</v>
@@ -2973,7 +3040,7 @@
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT14" t="n">
         <v>26</v>
@@ -2997,7 +3064,7 @@
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>0.279</v>
+        <v>0.273</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>85.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M15" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R15" t="n">
         <v>11.4</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
         <v>13</v>
@@ -3098,19 +3165,19 @@
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>21</v>
@@ -3140,10 +3207,10 @@
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
         <v>7</v>
@@ -3155,22 +3222,22 @@
         <v>11</v>
       </c>
       <c r="AS15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW15" t="n">
         <v>18</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
         <v>9</v>
@@ -3179,10 +3246,10 @@
         <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n">
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.721</v>
+        <v>0.714</v>
       </c>
       <c r="H16" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I16" t="n">
         <v>38.8</v>
       </c>
       <c r="J16" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.465</v>
@@ -3241,10 +3308,10 @@
         <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
         <v>18.4</v>
@@ -3253,46 +3320,46 @@
         <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="T16" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
         <v>22.3</v>
       </c>
       <c r="V16" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z16" t="n">
         <v>19.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
         <v>101.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3322,22 +3389,22 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT16" t="n">
         <v>16</v>
@@ -3346,28 +3413,28 @@
         <v>11</v>
       </c>
       <c r="AV16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX16" t="n">
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB16" t="n">
         <v>14</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3498,16 +3565,16 @@
         <v>10</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV17" t="n">
         <v>14</v>
@@ -3534,22 +3601,22 @@
         <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -3578,100 +3645,100 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
         <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>0.512</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J18" t="n">
         <v>81.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
-        <v>0.368</v>
+        <v>0.362</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="Q18" t="n">
         <v>0.772</v>
       </c>
       <c r="R18" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="V18" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="W18" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z18" t="n">
         <v>22.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE18" t="n">
         <v>16</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>14</v>
       </c>
       <c r="AF18" t="n">
         <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>24</v>
@@ -3680,13 +3747,13 @@
         <v>8</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
@@ -3695,16 +3762,16 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS18" t="n">
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3713,13 +3780,13 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3731,7 +3798,7 @@
         <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3853,7 +3920,7 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ19" t="n">
         <v>8</v>
@@ -3874,7 +3941,7 @@
         <v>9</v>
       </c>
       <c r="AP19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ19" t="n">
         <v>21</v>
@@ -3898,7 +3965,7 @@
         <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" t="n">
         <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,88 +4027,88 @@
         <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.59999999999999</v>
+        <v>84</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M20" t="n">
         <v>19</v>
       </c>
       <c r="N20" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O20" t="n">
         <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.762</v>
+        <v>0.753</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.9</v>
       </c>
       <c r="U20" t="n">
         <v>20.9</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W20" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>100.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4056,19 +4123,19 @@
         <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
         <v>18</v>
@@ -4080,13 +4147,13 @@
         <v>23</v>
       </c>
       <c r="AX20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>6</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>7</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -4124,85 +4191,85 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="n">
-        <v>0.178</v>
+        <v>0.182</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="J21" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L21" t="n">
         <v>7.4</v>
       </c>
       <c r="M21" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="N21" t="n">
         <v>0.357</v>
       </c>
       <c r="O21" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="P21" t="n">
         <v>17.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.77</v>
+        <v>0.776</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="T21" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V21" t="n">
         <v>14.8</v>
       </c>
       <c r="W21" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA21" t="n">
         <v>18.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.8</v>
+        <v>93.3</v>
       </c>
       <c r="AC21" t="n">
         <v>-8</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
@@ -4214,10 +4281,10 @@
         <v>29</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
         <v>23</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4256,16 +4323,16 @@
         <v>14</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AX21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
@@ -4274,7 +4341,7 @@
         <v>28</v>
       </c>
       <c r="BB21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>1.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
         <v>14</v>
@@ -4399,10 +4466,10 @@
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>21</v>
@@ -4420,7 +4487,7 @@
         <v>12</v>
       </c>
       <c r="AP22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ22" t="n">
         <v>23</v>
@@ -4444,13 +4511,13 @@
         <v>20</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>17</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -4488,94 +4555,94 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="n">
-        <v>0.333</v>
+        <v>0.326</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
         <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.365</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
         <v>19.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="R23" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.2</v>
+        <v>40.5</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
         <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
@@ -4590,13 +4657,13 @@
         <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,13 +4672,13 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>20</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.182</v>
+        <v>0.186</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="J24" t="n">
         <v>81</v>
       </c>
       <c r="K24" t="n">
-        <v>0.408</v>
+        <v>0.409</v>
       </c>
       <c r="L24" t="n">
         <v>7.1</v>
@@ -4700,67 +4767,67 @@
         <v>23.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.299</v>
+        <v>0.297</v>
       </c>
       <c r="O24" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P24" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.679</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="R24" t="n">
         <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T24" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U24" t="n">
         <v>19.9</v>
       </c>
       <c r="V24" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="W24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="X24" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA24" t="n">
         <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>89.8</v>
+        <v>90</v>
       </c>
       <c r="AC24" t="n">
-        <v>-12.5</v>
+        <v>-12.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG24" t="n">
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4790,13 +4857,13 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>29</v>
@@ -4811,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4948,7 +5015,7 @@
         <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4969,7 +5036,7 @@
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>16</v>
@@ -4990,13 +5057,13 @@
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" t="n">
         <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>0.711</v>
+        <v>0.705</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J26" t="n">
         <v>86.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L26" t="n">
         <v>10.2</v>
@@ -5064,19 +5131,19 @@
         <v>27.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O26" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P26" t="n">
         <v>19.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.792</v>
+        <v>0.787</v>
       </c>
       <c r="R26" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
         <v>34.8</v>
@@ -5091,16 +5158,16 @@
         <v>13.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y26" t="n">
         <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA26" t="n">
         <v>19.3</v>
@@ -5112,7 +5179,7 @@
         <v>5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5124,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>8</v>
@@ -5136,13 +5203,13 @@
         <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5151,7 +5218,7 @@
         <v>28</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR26" t="n">
         <v>15</v>
@@ -5169,22 +5236,22 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-2.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>22</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.614</v>
+        <v>0.622</v>
       </c>
       <c r="H28" t="n">
         <v>49</v>
@@ -5416,49 +5483,49 @@
         <v>38.1</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.369</v>
+        <v>0.372</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q28" t="n">
         <v>0.764</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5470,16 +5537,16 @@
         <v>20.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="AC28" t="n">
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -5494,10 +5561,10 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,16 +5573,16 @@
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5545,13 +5612,13 @@
         <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
         <v>15</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>5</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>10</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
         <v>9</v>
@@ -5682,7 +5749,7 @@
         <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>7</v>
@@ -5706,7 +5773,7 @@
         <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
         <v>19</v>
@@ -5718,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -5762,88 +5829,88 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" t="n">
         <v>28</v>
       </c>
       <c r="G30" t="n">
-        <v>0.364</v>
+        <v>0.349</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J30" t="n">
         <v>78.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L30" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M30" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.343</v>
+        <v>0.339</v>
       </c>
       <c r="O30" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P30" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q30" t="n">
         <v>0.753</v>
       </c>
       <c r="R30" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T30" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U30" t="n">
         <v>20.4</v>
       </c>
       <c r="V30" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X30" t="n">
         <v>5.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.8</v>
+        <v>95.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-2.7</v>
+        <v>-3.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
         <v>24</v>
@@ -5864,16 +5931,16 @@
         <v>17</v>
       </c>
       <c r="AL30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN30" t="n">
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
@@ -5882,7 +5949,7 @@
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5897,13 +5964,13 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ30" t="n">
         <v>5</v>
@@ -5915,7 +5982,7 @@
         <v>24</v>
       </c>
       <c r="BC30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" t="n">
         <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" t="n">
-        <v>0.659</v>
+        <v>0.674</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5974,22 +6041,22 @@
         <v>15.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P31" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.74</v>
       </c>
       <c r="R31" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S31" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="T31" t="n">
         <v>43.5</v>
@@ -6007,34 +6074,34 @@
         <v>5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
         <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AG31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH31" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6064,19 +6131,19 @@
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
         <v>10</v>
       </c>
       <c r="AT31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
         <v>14</v>
@@ -6091,10 +6158,10 @@
         <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-24-2014-15</t>
+          <t>2015-01-24</t>
         </is>
       </c>
     </row>
